--- a/export_excel/static/files/proyecto_vicky.xlsx
+++ b/export_excel/static/files/proyecto_vicky.xlsx
@@ -10,7 +10,7 @@
     <sheet name="OCTOBER2020" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'OCTOBER2020'!$A$1:$K$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'OCTOBER2020'!$A$1:$K$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,8 +572,63 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>ARIQUILDA</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>02-10-2020</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Brayan Aaron Berna Rojas</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>17.655.577-7</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>CNS</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>CHILENA</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>AYMARA</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>MENOR DE 1 MES</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>28 AÑOS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K2"/>
+  <autoFilter ref="A1:K3"/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/export_excel/static/files/proyecto_vicky.xlsx
+++ b/export_excel/static/files/proyecto_vicky.xlsx
@@ -1,51 +1,129 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56975\Desktop\proyecto_vicky\export_excel\static\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA2A7BC-8E89-4721-9149-8A6EE0F7F488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="OCTOBER2020" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="OCTOBER2020" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'OCTOBER2020'!$A$1:$K$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OCTOBER2020!$A$1:$K$3</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>LOCALIDAD</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>RUT</t>
+  </si>
+  <si>
+    <t>TIPO ATENCION</t>
+  </si>
+  <si>
+    <t>NACIONALIDAD</t>
+  </si>
+  <si>
+    <t>ETNIA</t>
+  </si>
+  <si>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>RANGO ETARIO</t>
+  </si>
+  <si>
+    <t>EDAD</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ARIQUILDA</t>
+  </si>
+  <si>
+    <t>02-10-2020</t>
+  </si>
+  <si>
+    <t>Brayan Aaron Berna Rojas</t>
+  </si>
+  <si>
+    <t>17.655.577-7</t>
+  </si>
+  <si>
+    <t>CNS</t>
+  </si>
+  <si>
+    <t>CHILENA</t>
+  </si>
+  <si>
+    <t>QUECHUA</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
+  </si>
+  <si>
+    <t>MENOR DE 1 MES</t>
+  </si>
+  <si>
+    <t>28 AÑOS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00000000"/>
+      <b/>
       <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004BACC6"/>
+        <fgColor rgb="FF4BACC6"/>
       </patternFill>
     </fill>
   </fills>
@@ -59,105 +137,46 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -445,190 +464,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>N°</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>LOCALIDAD</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NOMBRE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>RUT</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TIPO ATENCION</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>NACIONALIDAD</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ETNIA</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>SEXO</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>RANGO ETARIO</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>EDAD</t>
-        </is>
+    <row r="1" spans="1:11" ht="21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>ARIQUILDA</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>02-10-2020</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Brayan Aaron Berna Rojas</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>17.655.577-7</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>CNS</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>CHILENA</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>QUECHUA</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>MENOR DE 1 MES</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>28 AÑOS</t>
-        </is>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>ARIQUILDA</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>02-10-2020</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Brayan Aaron Berna Rojas</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>17.655.577-7</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>CNS</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>CHILENA</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>AYMARA</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>MASCULINO</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>MENOR DE 1 MES</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>28 AÑOS</t>
-        </is>
-      </c>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K3"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <autoFilter ref="A1:K3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/export_excel/static/files/proyecto_vicky.xlsx
+++ b/export_excel/static/files/proyecto_vicky.xlsx
@@ -10,7 +10,7 @@
     <sheet name="OCTOBER2020" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'OCTOBER2020'!$A$1:$K$2</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'OCTOBER2020'!$A$1:$K$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,8 +572,63 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>ARIQUILDA</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>03-10-2020</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Anthony Edward Stark</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>17.655.577-7</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>CNS</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>CHILENA</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>QUECHUA</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>MENOR DE 1 MES</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>28 AÑOS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K2"/>
+  <autoFilter ref="A1:K3"/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>